--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ПО ЭХЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-59-43).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ПО ЭХЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-59-43).xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="21">
   <si>
     <t>Возрастные группы</t>
   </si>
@@ -85,12 +75,15 @@
   </si>
   <si>
     <t>Взвешенные величины</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -165,7 +158,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,14 +189,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,17 +447,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -757,6 +760,310 @@
       </c>
       <c r="G13" s="3">
         <v>82.500862729999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6">
+        <v>85.942785929465188</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>85.942785929465188</v>
+      </c>
+      <c r="E18" s="6">
+        <v>71.317196416149031</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="6">
+        <v>71.317196416149031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>86.10537354945798</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6">
+        <v>86.10537354945798</v>
+      </c>
+      <c r="E19" s="6">
+        <v>74.338248890082298</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="6">
+        <v>74.338248890082298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>88.264204196670832</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>88.264204196670832</v>
+      </c>
+      <c r="E20" s="6">
+        <v>79.800852293637647</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="6">
+        <v>79.800852293637647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6">
+        <v>89.687807117221382</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6">
+        <v>89.687807117221382</v>
+      </c>
+      <c r="E21" s="6">
+        <v>81.81833340905365</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6">
+        <v>81.81833340905365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6">
+        <v>91.16113316538204</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6">
+        <v>91.16113316538204</v>
+      </c>
+      <c r="E22" s="6">
+        <v>85.901592393393827</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6">
+        <v>85.901592393393827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>92.43417437556279</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6">
+        <v>92.43417437556279</v>
+      </c>
+      <c r="E23" s="6">
+        <v>87.283804399049458</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6">
+        <v>87.283804399049458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6">
+        <v>93.93655550332781</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>93.93655550332781</v>
+      </c>
+      <c r="E24" s="6">
+        <v>90.210595965578378</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="6">
+        <v>90.210595965578378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6">
+        <v>94.948158219590226</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6">
+        <v>94.948158219590226</v>
+      </c>
+      <c r="E25" s="6">
+        <v>90.756504769762969</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6">
+        <v>90.756504769762969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>96.590303885098805</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6">
+        <v>96.590303885098805</v>
+      </c>
+      <c r="E26" s="6">
+        <v>95.173382410905376</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="6">
+        <v>95.173382410905376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6">
+        <v>97.366152610691159</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6">
+        <v>97.366152610691159</v>
+      </c>
+      <c r="E27" s="6">
+        <v>96.440812899834611</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6">
+        <v>96.440812899834611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7">
+        <v>90.837900899999994</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>90.837900899999994</v>
+      </c>
+      <c r="E29" s="7">
+        <v>84.198161060000004</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="7">
+        <v>84.198161060000004</v>
       </c>
     </row>
   </sheetData>
@@ -765,15 +1072,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1069,6 +1378,310 @@
       </c>
       <c r="G13" s="3">
         <v>83.32755573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10">
+        <v>80.898692186972568</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10">
+        <v>80.898692186972568</v>
+      </c>
+      <c r="E18" s="10">
+        <v>71.289404204363294</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="10">
+        <v>71.289404204363294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>84.166190001810733</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <v>84.166190001810733</v>
+      </c>
+      <c r="E19" s="10">
+        <v>77.844169245386141</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="10">
+        <v>77.844169245386141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>86.535707430127175</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10">
+        <v>86.535707430127175</v>
+      </c>
+      <c r="E20" s="10">
+        <v>80.297971400978938</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="10">
+        <v>80.297971400978938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="10">
+        <v>88.190451968923853</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10">
+        <v>88.190451968923853</v>
+      </c>
+      <c r="E21" s="10">
+        <v>83.276753654371163</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="10">
+        <v>83.276753654371163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="10">
+        <v>88.490698543423022</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10">
+        <v>88.490698543423022</v>
+      </c>
+      <c r="E22" s="10">
+        <v>83.87210563933894</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="10">
+        <v>83.87210563933894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10">
+        <v>90.156914033490793</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10">
+        <v>90.156914033490793</v>
+      </c>
+      <c r="E23" s="10">
+        <v>85.309899688683572</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="10">
+        <v>85.309899688683572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="10">
+        <v>92.038814091673871</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10">
+        <v>92.038814091673871</v>
+      </c>
+      <c r="E24" s="10">
+        <v>88.378708899121534</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="10">
+        <v>88.378708899121534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10">
+        <v>94.421992681477988</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10">
+        <v>94.421992681477988</v>
+      </c>
+      <c r="E25" s="10">
+        <v>91.807816808336952</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="10">
+        <v>91.807816808336952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="10">
+        <v>95.804355920979617</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10">
+        <v>95.804355920979617</v>
+      </c>
+      <c r="E26" s="10">
+        <v>94.14726272784533</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="10">
+        <v>94.14726272784533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="10">
+        <v>96.113971387857646</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="10">
+        <v>96.113971387857646</v>
+      </c>
+      <c r="E27" s="10">
+        <v>96.790286556596399</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="10">
+        <v>96.790286556596399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="11">
+        <v>89.578946310000006</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="11">
+        <v>89.578946310000006</v>
+      </c>
+      <c r="E29" s="11">
+        <v>84.97620646</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="11">
+        <v>84.97620646</v>
       </c>
     </row>
   </sheetData>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ПО ЭХЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-59-43).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ПО ЭХЗ ИБПО_LAR (Средний возраст)(01.09.2015 23-59-43).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
@@ -10,6 +15,10 @@
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -189,7 +198,8811 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>84.825857663451757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.848821595595197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.97942256659654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.48581551497989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.258213028585104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.46887769306305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.912918971650711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.809094776691339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.575006817394964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.407313499473773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$18:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>85.942785929465188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.10537354945798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.264204196670832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.687807117221382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.16113316538204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.43417437556279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.93655550332781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.948158219590226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.590303885098805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.366152610691159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69.022849644973221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.395370189589698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.987521539910631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.051896565102439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.371456201536446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.761296288718711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.539898831918734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.082205929176908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.69613920033909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.129779513913704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$18:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71.317196416149031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.338248890082298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.800852293637647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.81833340905365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.901592393393827</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.283804399049458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.210595965578378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.756504769762969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.173382410905376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.440812899834611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="484042896"/>
+        <c:axId val="484041328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484042896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484041328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484041328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484042896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="484046424"/>
+        <c:axId val="484047208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484046424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484047208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484047208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484046424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="484041720"/>
+        <c:axId val="484036232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484041720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484036232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484036232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484041720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>80.398002915981991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.174761737165625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.135107428395514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.581868446069748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.77146523118779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.026694638844859</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.671108535488045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.13561391591324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.574853276282099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.836663699506573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$18:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>80.898692186972568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.166190001810733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.535707430127175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.190451968923853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.490698543423022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.156914033490793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.038814091673871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.421992681477988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.804355920979617</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.113971387857646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>72.129032897630154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.675012024163692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.408340097795929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.109729504854016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.791713158188855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.390617655909992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.307843425065684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.240648912683554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.765377333944897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.535856501144096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$18:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71.289404204363294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.844169245386141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.297971400978938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.276753654371163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.87210563933894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.309899688683572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.378708899121534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.807816808336952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.14726272784533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.790286556596399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="484046816"/>
+        <c:axId val="484044072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484046816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484044072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484044072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484046816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="484040544"/>
+        <c:axId val="484037016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484040544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484037016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484037016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484040544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Женщины!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="484043288"/>
+        <c:axId val="484037800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484043288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484037800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484037800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484043288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мужчины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Женщины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,18 +9260,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,15 +9881,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1686,5 +10500,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>